--- a/AI-students-2025.xlsx
+++ b/AI-students-2025.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mendelu-my.sharepoint.com/personal/xjanosi4_mendelu_cz1/Documents/Mendelu/FRRMS výuka/AI v RR a TS/2025/ukol-10-vizualizace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{51392A94-29BE-4776-8DEE-43E7FFB2D7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A919FAF7-3E67-4A87-A646-C6B9EE2E7638}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{51392A94-29BE-4776-8DEE-43E7FFB2D7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63C10A88-0A41-45C8-A4AC-D6E46C576F32}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3705" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="2" r:id="rId1"/>
+    <sheet name="summary" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="82">
   <si>
     <t>Poř.</t>
   </si>
@@ -324,11 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -639,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A252BA14-A225-4AB3-B3DE-8CD1AF930B6A}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,13 +657,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -680,13 +677,13 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
@@ -700,13 +697,13 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
@@ -720,13 +717,13 @@
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
@@ -740,13 +737,13 @@
       <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
@@ -760,13 +757,13 @@
       <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
@@ -780,13 +777,13 @@
       <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
@@ -800,13 +797,13 @@
       <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
@@ -820,13 +817,13 @@
       <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
     </row>
@@ -840,13 +837,13 @@
       <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
@@ -860,13 +857,13 @@
       <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -880,13 +877,13 @@
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
     </row>
@@ -900,13 +897,13 @@
       <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
     </row>
@@ -920,13 +917,13 @@
       <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
@@ -940,13 +937,13 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
     </row>
@@ -960,13 +957,13 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
@@ -980,13 +977,13 @@
       <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
     </row>
@@ -1000,13 +997,13 @@
       <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
     </row>
@@ -1020,13 +1017,13 @@
       <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
     </row>
@@ -1040,13 +1037,13 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
@@ -1060,13 +1057,13 @@
       <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
         <v>3</v>
       </c>
     </row>
@@ -1080,13 +1077,13 @@
       <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>3</v>
       </c>
     </row>
@@ -1100,13 +1097,13 @@
       <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -1120,13 +1117,13 @@
       <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>3</v>
       </c>
     </row>
@@ -1140,13 +1137,13 @@
       <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
     </row>
@@ -1160,13 +1157,13 @@
       <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
@@ -1180,13 +1177,13 @@
       <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
         <v>3</v>
       </c>
     </row>
@@ -1200,13 +1197,13 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
     </row>
@@ -1220,13 +1217,13 @@
       <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
@@ -1240,13 +1237,13 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
     </row>
@@ -1260,13 +1257,13 @@
       <c r="C31" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>
@@ -1280,13 +1277,13 @@
       <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
     </row>
@@ -1300,13 +1297,13 @@
       <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33">
         <v>7</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
@@ -1320,13 +1317,13 @@
       <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
     </row>
@@ -1340,13 +1337,13 @@
       <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
     </row>
@@ -1360,13 +1357,13 @@
       <c r="C36" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
         <v>3</v>
       </c>
     </row>
@@ -1380,13 +1377,13 @@
       <c r="C37" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="2">
-        <v>5</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
         <v>3</v>
       </c>
     </row>
@@ -1400,13 +1397,13 @@
       <c r="C38" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
     </row>
@@ -1420,13 +1417,13 @@
       <c r="C39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
         <v>3</v>
       </c>
     </row>
@@ -1440,13 +1437,13 @@
       <c r="C40" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="2">
-        <v>5</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
         <v>3</v>
       </c>
     </row>
@@ -1460,13 +1457,13 @@
       <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2">
-        <v>5</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
         <v>3</v>
       </c>
     </row>
@@ -1480,13 +1477,13 @@
       <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="2">
-        <v>5</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
         <v>3</v>
       </c>
     </row>
@@ -1500,13 +1497,13 @@
       <c r="C43" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="2">
-        <v>5</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
         <v>3</v>
       </c>
     </row>
@@ -1520,13 +1517,13 @@
       <c r="C44" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <v>3</v>
       </c>
     </row>
@@ -1540,13 +1537,13 @@
       <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
     </row>
@@ -1560,13 +1557,13 @@
       <c r="C46" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="2">
-        <v>5</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
         <v>3</v>
       </c>
     </row>
@@ -1580,13 +1577,13 @@
       <c r="C47" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="2">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
         <v>3</v>
       </c>
     </row>
@@ -1600,13 +1597,13 @@
       <c r="C48" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>3</v>
       </c>
     </row>
@@ -1620,13 +1617,13 @@
       <c r="C49" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="2">
-        <v>5</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
         <v>3</v>
       </c>
     </row>
@@ -1640,13 +1637,13 @@
       <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="2">
-        <v>5</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
         <v>3</v>
       </c>
     </row>
@@ -1660,13 +1657,13 @@
       <c r="C51" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="2">
-        <v>5</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
         <v>3</v>
       </c>
     </row>
@@ -1680,13 +1677,13 @@
       <c r="C52" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="2">
-        <v>5</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
         <v>3</v>
       </c>
     </row>
@@ -1700,13 +1697,13 @@
       <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="2">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
         <v>2</v>
       </c>
     </row>
@@ -1720,13 +1717,13 @@
       <c r="C54" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2">
-        <v>5</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
         <v>3</v>
       </c>
     </row>
@@ -1740,13 +1737,13 @@
       <c r="C55" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>1</v>
       </c>
     </row>
@@ -1760,13 +1757,13 @@
       <c r="C56" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="2">
-        <v>5</v>
-      </c>
-      <c r="F56" s="2">
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
         <v>3</v>
       </c>
     </row>
@@ -1780,13 +1777,13 @@
       <c r="C57" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="2">
-        <v>5</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
         <v>3</v>
       </c>
     </row>
@@ -1800,13 +1797,13 @@
       <c r="C58" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2">
-        <v>3</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
         <v>2</v>
       </c>
     </row>
@@ -1820,13 +1817,13 @@
       <c r="C59" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="2">
-        <v>5</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
         <v>3</v>
       </c>
     </row>
@@ -1840,13 +1837,13 @@
       <c r="C60" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2">
-        <v>3</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
         <v>2</v>
       </c>
     </row>
@@ -1860,13 +1857,13 @@
       <c r="C61" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="2">
-        <v>5</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
         <v>3</v>
       </c>
     </row>
@@ -1880,13 +1877,13 @@
       <c r="C62" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="2">
-        <v>5</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
         <v>3</v>
       </c>
     </row>
@@ -1900,13 +1897,13 @@
       <c r="C63" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="2">
-        <v>5</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
     </row>
@@ -1920,13 +1917,13 @@
       <c r="C64" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2">
-        <v>5</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
     </row>
@@ -1940,13 +1937,13 @@
       <c r="C65" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2">
-        <v>3</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
         <v>2</v>
       </c>
     </row>
@@ -1960,13 +1957,13 @@
       <c r="C66" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="2">
-        <v>5</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
         <v>3</v>
       </c>
     </row>
@@ -1980,13 +1977,13 @@
       <c r="C67" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="2">
-        <v>3</v>
-      </c>
-      <c r="F67" s="2">
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
         <v>2</v>
       </c>
     </row>
@@ -2000,13 +1997,13 @@
       <c r="C68" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2">
-        <v>3</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
         <v>2</v>
       </c>
     </row>
@@ -2020,13 +2017,13 @@
       <c r="C69" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
         <v>2</v>
       </c>
     </row>
@@ -2040,13 +2037,13 @@
       <c r="C70" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="2">
-        <v>5</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
         <v>3</v>
       </c>
     </row>
@@ -2060,13 +2057,13 @@
       <c r="C71" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71">
         <v>7</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71">
         <v>3</v>
       </c>
     </row>
@@ -2080,13 +2077,13 @@
       <c r="C72" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72">
         <v>1</v>
       </c>
     </row>
@@ -2100,13 +2097,13 @@
       <c r="C73" t="s">
         <v>59</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="2">
-        <v>5</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
         <v>3</v>
       </c>
     </row>
@@ -2120,13 +2117,13 @@
       <c r="C74" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3</v>
-      </c>
-      <c r="F74" s="2">
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
         <v>2</v>
       </c>
     </row>
@@ -2140,13 +2137,13 @@
       <c r="C75" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="2">
-        <v>5</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
         <v>3</v>
       </c>
     </row>
@@ -2160,13 +2157,13 @@
       <c r="C76" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="2">
-        <v>3</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="D76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
         <v>2</v>
       </c>
     </row>
@@ -2180,13 +2177,13 @@
       <c r="C77" t="s">
         <v>59</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="2">
-        <v>5</v>
-      </c>
-      <c r="F77" s="2">
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
         <v>3</v>
       </c>
     </row>
@@ -2200,13 +2197,13 @@
       <c r="C78" t="s">
         <v>59</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" s="2">
-        <v>5</v>
-      </c>
-      <c r="F78" s="2">
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
         <v>3</v>
       </c>
     </row>
@@ -2220,13 +2217,13 @@
       <c r="C79" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="2">
-        <v>3</v>
-      </c>
-      <c r="F79" s="2">
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
         <v>2</v>
       </c>
     </row>
@@ -2240,13 +2237,13 @@
       <c r="C80" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="2">
-        <v>5</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
         <v>3</v>
       </c>
     </row>
@@ -2260,13 +2257,13 @@
       <c r="C81" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" s="2">
-        <v>3</v>
-      </c>
-      <c r="F81" s="2">
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
         <v>2</v>
       </c>
     </row>
@@ -2280,13 +2277,13 @@
       <c r="C82" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" s="2">
-        <v>5</v>
-      </c>
-      <c r="F82" s="2">
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
         <v>3</v>
       </c>
     </row>
@@ -2300,13 +2297,13 @@
       <c r="C83" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="2">
-        <v>3</v>
-      </c>
-      <c r="F83" s="2">
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
         <v>2</v>
       </c>
     </row>
@@ -2320,13 +2317,13 @@
       <c r="C84" t="s">
         <v>60</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="2">
-        <v>5</v>
-      </c>
-      <c r="F84" s="2">
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
         <v>3</v>
       </c>
     </row>
@@ -2340,13 +2337,13 @@
       <c r="C85" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85">
         <v>7</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85">
         <v>3</v>
       </c>
     </row>
@@ -2360,13 +2357,13 @@
       <c r="C86" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" s="2">
-        <v>3</v>
-      </c>
-      <c r="F86" s="2">
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
         <v>2</v>
       </c>
     </row>
@@ -2380,13 +2377,13 @@
       <c r="C87" t="s">
         <v>59</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E87" s="2">
-        <v>5</v>
-      </c>
-      <c r="F87" s="2">
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
         <v>3</v>
       </c>
     </row>
@@ -2400,13 +2397,13 @@
       <c r="C88" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E88" s="2">
-        <v>5</v>
-      </c>
-      <c r="F88" s="2">
+      <c r="D88" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
         <v>3</v>
       </c>
     </row>
@@ -2420,13 +2417,13 @@
       <c r="C89" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E89" s="2">
-        <v>5</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
         <v>3</v>
       </c>
     </row>
@@ -2440,13 +2437,13 @@
       <c r="C90" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E90" s="2">
-        <v>3</v>
-      </c>
-      <c r="F90" s="2">
+      <c r="D90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
         <v>2</v>
       </c>
     </row>
@@ -2460,13 +2457,13 @@
       <c r="C91" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E91" s="2">
-        <v>3</v>
-      </c>
-      <c r="F91" s="2">
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
         <v>2</v>
       </c>
     </row>
@@ -2480,13 +2477,13 @@
       <c r="C92" t="s">
         <v>59</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E92" s="2">
-        <v>5</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="D92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
         <v>3</v>
       </c>
     </row>
@@ -2500,14 +2497,73 @@
       <c r="C93" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="2">
-        <v>5</v>
-      </c>
-      <c r="F93" s="2">
-        <v>3</v>
+      <c r="D93" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A34269-F33A-46FD-9C3E-1D2D83E7C275}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
